--- a/bioSample/bioSample_3016.xlsx
+++ b/bioSample/bioSample_3016.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_3016.xlsx
+++ b/bioSample/bioSample_3016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -91,6 +91,9 @@
     <t xml:space="preserve">CNAG_05538</t>
   </si>
   <si>
+    <t xml:space="preserve">NAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">TDY2273</t>
   </si>
   <si>
@@ -101,9 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">CNAG_06188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAT</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2205</t>
@@ -124,6 +124,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -208,7 +209,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -216,9 +217,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.07"/>
@@ -375,6 +376,9 @@
       <c r="I5" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J5" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -390,10 +394,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>15</v>
@@ -404,6 +408,9 @@
       <c r="I6" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J6" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -419,10 +426,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>15</v>
@@ -434,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,6 +471,9 @@
       </c>
       <c r="I8" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
